--- a/T- and Chi2 test tables/top4_all_tw_sign_diff_in_std_diffs.xlsx
+++ b/T- and Chi2 test tables/top4_all_tw_sign_diff_in_std_diffs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>var</t>
   </si>
@@ -46,52 +46,127 @@
     <t>topic_name_Togetherness</t>
   </si>
   <si>
+    <t>topic_name_Event</t>
+  </si>
+  <si>
+    <t>topic_name_unknown</t>
+  </si>
+  <si>
+    <t>topic_name_Appreciation</t>
+  </si>
+  <si>
+    <t>sentiment_1</t>
+  </si>
+  <si>
+    <t>Media type_1</t>
+  </si>
+  <si>
+    <t>has_video_0</t>
+  </si>
+  <si>
     <t>is_weekday_0</t>
   </si>
   <si>
-    <t>has_video_0</t>
-  </si>
-  <si>
-    <t>Media type_1</t>
-  </si>
-  <si>
-    <t>topic_name_Event</t>
-  </si>
-  <si>
-    <t>sentiment_1</t>
-  </si>
-  <si>
-    <t>topic_name_Appreciation</t>
-  </si>
-  <si>
-    <t>topic_name_unknown</t>
+    <t>topic_name_Digital</t>
+  </si>
+  <si>
+    <t>topic_name_Financial</t>
+  </si>
+  <si>
+    <t>topic_name_Entrepreneurship</t>
   </si>
   <si>
     <t>sentiment_0</t>
   </si>
   <si>
-    <t>topic_name_Financial</t>
-  </si>
-  <si>
     <t>Media type_0</t>
   </si>
   <si>
-    <t>topic_name_Digital</t>
-  </si>
-  <si>
     <t>Media type_2</t>
   </si>
   <si>
     <t>has_image_0</t>
   </si>
   <si>
-    <t>topic_name_Entrepreneurship</t>
-  </si>
-  <si>
     <t>video_duration</t>
   </si>
   <si>
     <t>raw_length</t>
+  </si>
+  <si>
+    <t>month_1</t>
+  </si>
+  <si>
+    <t>month_3</t>
+  </si>
+  <si>
+    <t>month_7</t>
+  </si>
+  <si>
+    <t>month_8</t>
+  </si>
+  <si>
+    <t>month_9</t>
+  </si>
+  <si>
+    <t>part_of_the_day_12-15</t>
+  </si>
+  <si>
+    <t>part_of_the_day_22-05</t>
+  </si>
+  <si>
+    <t>part_of_the_day_08-12</t>
+  </si>
+  <si>
+    <t>topic_name_Competition</t>
+  </si>
+  <si>
+    <t>topic_name_Empowerment</t>
+  </si>
+  <si>
+    <t>topic_name_Transaction</t>
+  </si>
+  <si>
+    <t>month_2</t>
+  </si>
+  <si>
+    <t>month_4</t>
+  </si>
+  <si>
+    <t>month_5</t>
+  </si>
+  <si>
+    <t>month_6</t>
+  </si>
+  <si>
+    <t>month_10</t>
+  </si>
+  <si>
+    <t>month_11</t>
+  </si>
+  <si>
+    <t>month_12</t>
+  </si>
+  <si>
+    <t>asking_for_eng_0</t>
+  </si>
+  <si>
+    <t>part_of_the_day_15-19</t>
+  </si>
+  <si>
+    <t>part_of_the_day_19-22</t>
+  </si>
+  <si>
+    <t>has_emoji_0</t>
+  </si>
+  <si>
+    <t>topic_name_Festivity</t>
+  </si>
+  <si>
+    <t>topic_name_Education</t>
+  </si>
+  <si>
+    <t>sentiment_-1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,22 +622,22 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>1018</v>
+        <v>506</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>0.1492869886573304</v>
+        <v>0.1136789951054175</v>
       </c>
       <c r="F4">
-        <v>-0.02974351902300643</v>
+        <v>-0.01207009577621295</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -576,22 +651,22 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>4256</v>
+        <v>86</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>0.02380084524581109</v>
+        <v>0.5040243425998657</v>
       </c>
       <c r="F5">
-        <v>-0.0483232248493519</v>
+        <v>-0.009165640858349641</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -605,22 +680,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>2871</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>0.06176701254595713</v>
+        <v>0.5144393145009063</v>
       </c>
       <c r="F6">
-        <v>-0.05069475029504796</v>
+        <v>-0.009538055541962394</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -634,22 +709,22 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>506</v>
+        <v>4464</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>0.1136789951054175</v>
+        <v>0.02958964275776585</v>
       </c>
       <c r="F7">
-        <v>-0.01207009577621295</v>
+        <v>-0.06649181856517039</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -663,16 +738,16 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>4464</v>
+        <v>2871</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8">
-        <v>0.02958964275776585</v>
+        <v>0.06176701254595713</v>
       </c>
       <c r="F8">
-        <v>-0.06649181856517039</v>
+        <v>-0.05069475029504796</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -692,16 +767,16 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>89</v>
+        <v>4256</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>0.5144393145009063</v>
+        <v>0.02380084524581109</v>
       </c>
       <c r="F9">
-        <v>-0.009538055541962394</v>
+        <v>-0.0483232248493519</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -721,22 +796,22 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>86</v>
+        <v>1018</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>0.5040243425998657</v>
+        <v>0.1492869886573304</v>
       </c>
       <c r="F10">
-        <v>-0.009165640858349641</v>
+        <v>-0.02974351902300643</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -750,22 +825,22 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>1686</v>
+        <v>904</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E11">
-        <v>-0.07931964277414241</v>
+        <v>-0.08387482830359604</v>
       </c>
       <c r="F11">
-        <v>0.02314911954901867</v>
+        <v>0.01006153614370085</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -808,22 +883,22 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>1385</v>
+        <v>2257</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E13">
-        <v>-0.05490014126589957</v>
+        <v>-0.06767353618593931</v>
       </c>
       <c r="F13">
-        <v>0.01101018449210337</v>
+        <v>0.03038243059659455</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.026</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -837,22 +912,22 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>904</v>
+        <v>1686</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>-0.08387482830359604</v>
+        <v>-0.07931964277414241</v>
       </c>
       <c r="F14">
-        <v>0.01006153614370085</v>
+        <v>0.02314911954901867</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -866,22 +941,22 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>2456</v>
+        <v>1385</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15">
-        <v>-0.0483232248493519</v>
+        <v>-0.05490014126589957</v>
       </c>
       <c r="F15">
-        <v>0.02380084524581109</v>
+        <v>0.01101018449210337</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.002</v>
+        <v>0.026</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -895,22 +970,22 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>3841</v>
+        <v>2456</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>-0.05069475029504796</v>
+        <v>-0.0483232248493519</v>
       </c>
       <c r="F16">
-        <v>0.06176701254595713</v>
+        <v>0.02380084524581109</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -924,16 +999,16 @@
         <v>23</v>
       </c>
       <c r="C17">
-        <v>2257</v>
+        <v>3841</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>-0.06767353618593931</v>
+        <v>-0.05069475029504796</v>
       </c>
       <c r="F17">
-        <v>0.03038243059659455</v>
+        <v>0.06176701254595713</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1001,6 +1076,731 @@
       </c>
       <c r="I19">
         <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>550</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>0.04745229265503326</v>
+      </c>
+      <c r="F20">
+        <v>-0.007056832817933229</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0.241</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>588</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>0.06557250043589614</v>
+      </c>
+      <c r="F21">
+        <v>-0.009134891103877076</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0.104</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>524</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>0.006996946714318536</v>
+      </c>
+      <c r="F22">
+        <v>-0.003402043138677957</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>508</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>0.01294707193844573</v>
+      </c>
+      <c r="F23">
+        <v>-0.00386243639725447</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0.722</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>545</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>0.02158444658466886</v>
+      </c>
+      <c r="F24">
+        <v>-0.004726603900191471</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25">
+        <v>1430</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>0.01501699425763682</v>
+      </c>
+      <c r="F25">
+        <v>-0.007357013376042584</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0.441</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>956</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>0.04819246535223163</v>
+      </c>
+      <c r="F26">
+        <v>-0.01102457257480363</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0.113</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <v>164</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>0.006745576291357622</v>
+      </c>
+      <c r="F27">
+        <v>-0.00282402525589782</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0.875</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28">
+        <v>380</v>
+      </c>
+      <c r="D28">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <v>0.06505340805732993</v>
+      </c>
+      <c r="F28">
+        <v>-0.006649674340748838</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0.237</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29">
+        <v>412</v>
+      </c>
+      <c r="D29">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>0.06311992752643242</v>
+      </c>
+      <c r="F29">
+        <v>-0.006887436984877214</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0.192</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30">
+        <v>299</v>
+      </c>
+      <c r="D30">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <v>0.02973801175940316</v>
+      </c>
+      <c r="F30">
+        <v>-0.004097475187883644</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0.573</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31">
+        <v>567</v>
+      </c>
+      <c r="D31">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>-0.0677288975381018</v>
+      </c>
+      <c r="F31">
+        <v>0.003420153301914961</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0.066</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32">
+        <v>651</v>
+      </c>
+      <c r="D32">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <v>-0.0252019270245602</v>
+      </c>
+      <c r="F32">
+        <v>-0.000161522582222004</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0.526</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33">
+        <v>692</v>
+      </c>
+      <c r="D33">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>-0.008091264225787459</v>
+      </c>
+      <c r="F33">
+        <v>-0.001957855152756036</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0.875</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <v>544</v>
+      </c>
+      <c r="D34">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>-0.01791998093358491</v>
+      </c>
+      <c r="F34">
+        <v>-0.001238160381965966</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0.704</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35">
+        <v>658</v>
+      </c>
+      <c r="D35">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <v>-0.03574503446538101</v>
+      </c>
+      <c r="F35">
+        <v>0.001013344865276582</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0.351</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36">
+        <v>477</v>
+      </c>
+      <c r="D36">
+        <v>12</v>
+      </c>
+      <c r="E36">
+        <v>-0.005285956335628458</v>
+      </c>
+      <c r="F36">
+        <v>-0.002383968194345069</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0.949</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37">
+        <v>408</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>-0.01923988326609408</v>
+      </c>
+      <c r="F37">
+        <v>-0.001512622222599917</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0.717</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38">
+        <v>6706</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>-0.003584482099204617</v>
+      </c>
+      <c r="F38">
+        <v>1.108682348904982</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0.379</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39">
+        <v>2528</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>-0.03042175635606982</v>
+      </c>
+      <c r="F39">
+        <v>0.01422580239108705</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0.068</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40">
+        <v>1548</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>-0.02566054731728313</v>
+      </c>
+      <c r="F40">
+        <v>0.004325539191192489</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0.282</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41">
+        <v>5844</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>-0.004238843631141596</v>
+      </c>
+      <c r="F41">
+        <v>0.008509630549026745</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0.705</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42">
+        <v>698</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <v>-0.0148171373341614</v>
+      </c>
+      <c r="F42">
+        <v>-0.001171114234218764</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0.747</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43">
+        <v>755</v>
+      </c>
+      <c r="D43">
+        <v>12</v>
+      </c>
+      <c r="E43">
+        <v>-0.04136047536858628</v>
+      </c>
+      <c r="F43">
+        <v>0.00232360517700963</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0.23</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44">
+        <v>562</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>-0.02800834593825431</v>
+      </c>
+      <c r="F44">
+        <v>-0.0002674394222011939</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0.503</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
